--- a/12)_RPA/IP_0006/test.xlsx
+++ b/12)_RPA/IP_0006/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\바탕 화면\study\12)_RPA\IP_0006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\TIL2022\12)_RPA\IP_0006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B027BD96-7D4A-4EC1-9480-9E0F216D7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF68CBC-B412-4ADF-BD8A-8FF9D257FAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>https://kr.tradingview.com/symbols/JPYKRW/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://kr.tradingview.com/symbols/USDKRW/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.tradingview.com/symbols/CNYKRW/</t>
+  </si>
+  <si>
+    <t>원달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원위안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.tradingview.com/symbols/JPYCNY/</t>
+  </si>
+  <si>
+    <t>https://kr.tradingview.com/symbols/USDJPY/</t>
+  </si>
+  <si>
+    <t>엔달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔위안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위안달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.tradingview.com/symbols/USDCNY/</t>
+  </si>
+  <si>
+    <t>달러싱가폴달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.tradingview.com/symbols/USDSGD/</t>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,15 +106,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -71,12 +128,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -358,25 +523,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="86.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="86.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/12)_RPA/IP_0006/test.xlsx
+++ b/12)_RPA/IP_0006/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\TIL2022\12)_RPA\IP_0006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF68CBC-B412-4ADF-BD8A-8FF9D257FAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56916F-2BFE-499F-AF4E-EF7ADA0F7C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,54 +35,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>원달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원위안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.tradingview.com/symbols/JPYCNY/</t>
+  </si>
+  <si>
+    <t>https://kr.tradingview.com/symbols/USDJPY/</t>
+  </si>
+  <si>
+    <t>엔달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔위안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위안달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.tradingview.com/symbols/USDCNY/</t>
+  </si>
+  <si>
+    <t>달러싱가폴달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.tradingview.com/symbols/USDSGD/</t>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://kr.tradingview.com/symbols/CNYKRW/</t>
-  </si>
-  <si>
-    <t>원달러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원엔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원위안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kr.tradingview.com/symbols/JPYCNY/</t>
-  </si>
-  <si>
-    <t>https://kr.tradingview.com/symbols/USDJPY/</t>
-  </si>
-  <si>
-    <t>엔달러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔위안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위안달러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kr.tradingview.com/symbols/USDCNY/</t>
-  </si>
-  <si>
-    <t>달러싱가폴달러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kr.tradingview.com/symbols/USDSGD/</t>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +104,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -242,10 +252,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,10 +552,10 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
@@ -549,59 +563,64 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2B39D385-5B72-43E4-8FC8-5F8AC0BEE9C3}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{10C9814E-2F87-421F-B665-73AF79F2E14D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{23C8E1B3-7034-4EE1-8FCB-E12F17487D57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>